--- a/item_list.xlsx
+++ b/item_list.xlsx
@@ -448,55 +448,55 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>40.699</t>
+          <t>40.549</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sony PlayStation 3 Slim 160GB Standard color charcoal black</t>
+          <t>Sony PlayStation 3 Super Slim 250GB Standard color charcoal black</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>61.185</t>
+          <t>60.500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sony PlayStation 4 500GB Standard color negro azabache</t>
+          <t>Sony PlayStation 3 Slim 160GB Standard color charcoal black</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159.900</t>
+          <t>61.185</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sony PlayStation 4 Slim 1TB Standard color negro azabache</t>
+          <t>Sony PlayStation 4 500GB Standard color negro azabache</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>169.999</t>
+          <t>159.900</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nintendo Switch 32GB Standard color rojo neón, azul neón y negro</t>
+          <t>Sony PlayStation 4 Slim 1TB Standard color negro azabache</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>220.000</t>
+          <t>177.999</t>
         </is>
       </c>
     </row>
